--- a/testing/results_new_dataset/GPT-4/KEYWORD_GPT_4.xlsx
+++ b/testing/results_new_dataset/GPT-4/KEYWORD_GPT_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="385">
   <si>
     <t>Statement</t>
   </si>
@@ -1157,6 +1157,18 @@
   </si>
   <si>
     <t>[('George H.W. Bush Margaret Thatcher an old wives’ story  it that', [('When I then went to Ambassador Cato\'s main house where President Bush had come,  George Bush just said to me, "now Margaret, what do you think?"Thatcher:  "Margaret, what is your view?"Q:  Could you just recall  the exact nature of that first conversation with George Bush.', 'https://www.pbs.org/wgbh/pages/frontline/gulf/oral/thatcher/1.html'), ('[311] In 2002 she encouraged George W. Bush to aggressively tackle the "unfinished business" of Iraq under Saddam Hussein,[312] and praised Blair for his "strong, bold leadership" in standing with Bush in the Iraq War.[234] During her talks with President George H. W. Bush, who succeeded Reagan in 1989, she recommended intervention,[234] and put pressure on Bush to deploy troops in the Middle East to drive the Iraqi Army out of Kuwait.[266]\n\nIn March 1990, Thatcher held a Chequers seminar on the subject of German reunification that was attended by members of her cabinet and historians such as Norman Stone, George Urban, Timothy Garton Ash and Gordon A. Craig.', 'https://en.wikipedia.org/wiki/Margaret_Thatcher'), ('I was with Margaret Thatcher in Aspen, Colorado, in August that year when news of the invasion came through.It has become fashionable to suggest Bush belonged to an elite that is somehow responsible for the current rightwing populist backlash.From that ensued what came to be known as the first Gulf war in 1991 and, arguably, also the 2003 invasion of Iraq by Bush’s son, George W Bush.', 'https://www.theguardian.com/us-news/2018/dec/01/george-hw-bush-american-patriot-deep-sense-duty')])]</t>
+  </si>
+  <si>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>The information provided does not contain any specific details about Perry pushing for a law that allows insurance companies to raise homeowners' rates without justification. The documents mention a law requiring insurance companies to file their rates and any rate increase requests with the MIA, but it does not specify who pushed for this law. Additionally, there is a mention of a law sponsored by Golden, not Perry, that mandates insurers to reflect wildfire mitigation efforts in their underwriting guidelines. There is also information about a rate increase approved by the Florida OIR, but again, no connection to Perry. Therefore, there is not enough information to verify the claim.</t>
+  </si>
+  <si>
+    <t>[('insurance companies homeowners’ rates a law  Perry the increase', [('The law requires insurance\ncompanies to file their rates, and any rate\nincrease requests, with the MIA.Another factor that has caused an increase in homeowners insurance rates is home values.', 'https://insurance.maryland.gov/Consumer/Documents/publications/ConsumerAdvisory-HomeownersInsuranceRateIncreases.pdf'), ('In 2023, a law sponsored by Golden and passed by the Legislature mandates that insurers reflect in their underwriting guidelines how they take into account wildfire mitigation efforts like home hardening and explain on their websites how such efforts impact rates or any discounts a property owner could receive.In 2023, a law sponsored by Golden and passed by the Legislature mandates that insurers reflect in their underwriting guidelines how they take into account wildfire mitigation efforts like home hardening and explain on their websites how such efforts impact rates or any discounts a property owner could receive.', 'https://oregoncapitalchronicle.com/2024/02/26/oregon-homeowners-face-soaring-premiums-few-property-insurance-options-over-wildfires/'), ('Although the company requested a 10.7 percent increase on standard home insurance policies, the Florida OIR approved a 6.4 percent increase.The rate increase will go into effect on September 1.', 'https://www.bankrate.com/insurance/homeowners-insurance/florida-homeowners-insurance-crisis/'), ('Insurance Companies in Perry Hall, MD:\n1.Home improvements may be covered by homeowners insurance in Perry Hall, MD if they increase the value of your home.', 'https://inspiyr.com/cheap-homeowners-insurance-rates-in-perry-hall-md/')])]</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1553,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3542,12 +3554,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
